--- a/TableOfContents.xlsx
+++ b/TableOfContents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Steam\steamapps\common\Mindustry\saves\mods\RealLifeMindustryMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D4EB07-61FE-484F-BCF5-B64F130A9A79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7741BDDD-C043-4902-A8FC-15D12D5A25B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="14115" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
   <si>
     <t>Raw copper ore</t>
   </si>
@@ -309,6 +309,24 @@
   </si>
   <si>
     <t>medical tools</t>
+  </si>
+  <si>
+    <t>Cement</t>
+  </si>
+  <si>
+    <t>gravel</t>
+  </si>
+  <si>
+    <t>calcium</t>
+  </si>
+  <si>
+    <t>75/25</t>
+  </si>
+  <si>
+    <t>Buildings</t>
+  </si>
+  <si>
+    <t>Windmill</t>
   </si>
 </sst>
 </file>
@@ -332,12 +350,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -352,9 +376,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -635,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O27"/>
+  <dimension ref="B2:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -658,7 +684,7 @@
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G3" t="s">
@@ -1003,6 +1029,18 @@
       <c r="B21" t="s">
         <v>35</v>
       </c>
+      <c r="G21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" t="s">
+        <v>94</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
@@ -1026,6 +1064,7 @@
       <c r="B25" t="s">
         <v>40</v>
       </c>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
@@ -1041,6 +1080,16 @@
       </c>
       <c r="C27" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B30" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/TableOfContents.xlsx
+++ b/TableOfContents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Steam\steamapps\common\Mindustry\saves\mods\RealLifeMindustryMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7741BDDD-C043-4902-A8FC-15D12D5A25B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1687E9CC-96E7-4853-8F30-8C6D785998BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="14115" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="58380" yWindow="15450" windowWidth="24930" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -663,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -692,7 +692,7 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G4" t="s">
@@ -878,7 +878,7 @@
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G13" t="s">

--- a/TableOfContents.xlsx
+++ b/TableOfContents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Steam\steamapps\common\Mindustry\saves\mods\RealLifeMindustryMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1687E9CC-96E7-4853-8F30-8C6D785998BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA3260E-BE8B-4B3F-84A9-EBE6FBF6B4B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58380" yWindow="15450" windowWidth="24930" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="14115" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="100">
   <si>
     <t>Raw copper ore</t>
   </si>
@@ -327,13 +327,19 @@
   </si>
   <si>
     <t>Windmill</t>
+  </si>
+  <si>
+    <t>mat 3</t>
+  </si>
+  <si>
+    <t>mat 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,8 +355,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,6 +381,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,11 +403,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -661,45 +690,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O31"/>
+  <dimension ref="B2:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.90625" customWidth="1"/>
+    <col min="9" max="9" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" customWidth="1"/>
+    <col min="14" max="14" width="28.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -709,14 +742,14 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" t="s">
         <v>83</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -724,82 +757,87 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="G7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="H7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" s="1" t="s">
+      <c r="I7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="M7" s="5"/>
+      <c r="N7" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" t="s">
         <v>41</v>
       </c>
-      <c r="M8" t="s">
+      <c r="L8" t="s">
         <v>48</v>
       </c>
-      <c r="O8" t="s">
+      <c r="N8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" t="s">
         <v>51</v>
       </c>
-      <c r="M9" t="s">
+      <c r="L9" t="s">
         <v>52</v>
       </c>
-      <c r="O9" t="s">
+      <c r="N9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -809,215 +847,215 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" t="s">
         <v>51</v>
       </c>
-      <c r="M10" t="s">
+      <c r="L10" t="s">
         <v>55</v>
       </c>
-      <c r="O10" t="s">
+      <c r="N10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>16</v>
       </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" t="s">
         <v>65</v>
       </c>
-      <c r="M11" t="s">
+      <c r="L11" t="s">
         <v>66</v>
       </c>
-      <c r="O11" t="s">
+      <c r="N11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>17</v>
       </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" t="s">
         <v>41</v>
       </c>
-      <c r="M12" t="s">
+      <c r="L12" t="s">
         <v>69</v>
       </c>
-      <c r="O12" t="s">
+      <c r="N12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" t="s">
         <v>62</v>
       </c>
-      <c r="O13" t="s">
+      <c r="N13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
       </c>
+      <c r="F14" t="s">
+        <v>73</v>
+      </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" t="s">
         <v>75</v>
       </c>
-      <c r="M14" t="s">
+      <c r="L14" t="s">
         <v>76</v>
       </c>
-      <c r="O14" t="s">
+      <c r="N14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
       </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="H15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" t="s">
         <v>18</v>
       </c>
-      <c r="M15" t="s">
+      <c r="L15" t="s">
         <v>79</v>
       </c>
-      <c r="O15" t="s">
+      <c r="N15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
+      <c r="F16" t="s">
+        <v>82</v>
+      </c>
       <c r="G16" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" t="s">
         <v>81</v>
       </c>
-      <c r="M16" t="s">
+      <c r="L16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>25</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
       </c>
+      <c r="F17" t="s">
+        <v>85</v>
+      </c>
       <c r="G17" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I17" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="J17" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" t="s">
         <v>25</v>
       </c>
-      <c r="M17" t="s">
+      <c r="L17" t="s">
         <v>86</v>
       </c>
-      <c r="O17" t="s">
+      <c r="N17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
       </c>
+      <c r="F18" t="s">
+        <v>88</v>
+      </c>
       <c r="G18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" t="s">
         <v>63</v>
       </c>
-      <c r="M18" t="s">
+      <c r="L18" t="s">
         <v>90</v>
       </c>
-      <c r="O18" t="s">
+      <c r="N18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>33</v>
       </c>
@@ -1025,24 +1063,24 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>35</v>
       </c>
+      <c r="F21" t="s">
+        <v>92</v>
+      </c>
       <c r="G21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H21" t="s">
-        <v>93</v>
-      </c>
-      <c r="I21" t="s">
         <v>94</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>36</v>
       </c>
@@ -1050,23 +1088,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>41</v>
       </c>
@@ -1074,7 +1112,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>54</v>
       </c>
@@ -1082,12 +1120,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>97</v>
       </c>

--- a/TableOfContents.xlsx
+++ b/TableOfContents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Steam\steamapps\common\Mindustry\saves\mods\RealLifeMindustryMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA3260E-BE8B-4B3F-84A9-EBE6FBF6B4B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FCDF66-D97C-4A8D-B865-8AC0FA2FA189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="14115" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="101">
   <si>
     <t>Raw copper ore</t>
   </si>
@@ -257,9 +257,6 @@
     <t>Nichrome</t>
   </si>
   <si>
-    <t>Liquid hydrogen</t>
-  </si>
-  <si>
     <t>Chrome</t>
   </si>
   <si>
@@ -333,6 +330,12 @@
   </si>
   <si>
     <t>mat 4</t>
+  </si>
+  <si>
+    <t>aluminum conveyor</t>
+  </si>
+  <si>
+    <t>Liquid nitrogen</t>
   </si>
 </sst>
 </file>
@@ -693,7 +696,7 @@
   <dimension ref="B2:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -728,12 +731,15 @@
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
@@ -743,10 +749,10 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" t="s">
         <v>83</v>
-      </c>
-      <c r="H5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.35">
@@ -774,10 +780,10 @@
         <v>46</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="4" t="s">
@@ -946,13 +952,13 @@
         <v>25</v>
       </c>
       <c r="H14" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" t="s">
         <v>75</v>
       </c>
-      <c r="L14" t="s">
+      <c r="N14" t="s">
         <v>76</v>
-      </c>
-      <c r="N14" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.35">
@@ -963,7 +969,7 @@
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s">
         <v>38</v>
@@ -972,10 +978,10 @@
         <v>18</v>
       </c>
       <c r="L15" t="s">
+        <v>78</v>
+      </c>
+      <c r="N15" t="s">
         <v>79</v>
-      </c>
-      <c r="N15" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.35">
@@ -986,16 +992,16 @@
         <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s">
         <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.35">
@@ -1006,7 +1012,7 @@
         <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s">
         <v>11</v>
@@ -1021,10 +1027,10 @@
         <v>25</v>
       </c>
       <c r="L17" t="s">
+        <v>85</v>
+      </c>
+      <c r="N17" t="s">
         <v>86</v>
-      </c>
-      <c r="N17" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.35">
@@ -1035,19 +1041,19 @@
         <v>28</v>
       </c>
       <c r="F18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" t="s">
         <v>88</v>
-      </c>
-      <c r="G18" t="s">
-        <v>89</v>
       </c>
       <c r="H18" t="s">
         <v>63</v>
       </c>
       <c r="L18" t="s">
+        <v>89</v>
+      </c>
+      <c r="N18" t="s">
         <v>90</v>
-      </c>
-      <c r="N18" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.35">
@@ -1068,16 +1074,16 @@
         <v>35</v>
       </c>
       <c r="F21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" t="s">
         <v>92</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>93</v>
       </c>
-      <c r="H21" t="s">
+      <c r="L21" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.35">
@@ -1122,12 +1128,12 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/TableOfContents.xlsx
+++ b/TableOfContents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Steam\steamapps\common\Mindustry\saves\mods\RealLifeMindustryMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FCDF66-D97C-4A8D-B865-8AC0FA2FA189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75466B10-6944-4412-8D9D-B9C7C77E2A2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="14115" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,7 +374,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,6 +393,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -406,13 +412,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -696,7 +703,7 @@
   <dimension ref="B2:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -756,7 +763,7 @@
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">

--- a/TableOfContents.xlsx
+++ b/TableOfContents.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Steam\steamapps\common\Mindustry\saves\mods\RealLifeMindustryMod\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75466B10-6944-4412-8D9D-B9C7C77E2A2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="14115" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="14115" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="108">
   <si>
     <t>Raw copper ore</t>
   </si>
@@ -336,13 +330,34 @@
   </si>
   <si>
     <t>Liquid nitrogen</t>
+  </si>
+  <si>
+    <t>f3a479</t>
+  </si>
+  <si>
+    <t>e27f6d</t>
+  </si>
+  <si>
+    <t>c1cbd1</t>
+  </si>
+  <si>
+    <t>99a8b2</t>
+  </si>
+  <si>
+    <t>7f9095</t>
+  </si>
+  <si>
+    <t>9a79f3</t>
+  </si>
+  <si>
+    <t>756de2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,7 +389,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,6 +414,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3A479"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE27F6D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC1CBD1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99A8B2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7F9095"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9A79F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF756DE2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -412,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -420,12 +477,31 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF756DE2"/>
+      <color rgb="FF9A79F3"/>
+      <color rgb="FF7F9095"/>
+      <color rgb="FF99A8B2"/>
+      <color rgb="FFC1CBD1"/>
+      <color rgb="FFE27F6D"/>
+      <color rgb="FFF3A479"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -480,7 +556,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -515,7 +591,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -692,454 +768,477 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A3" sqref="A3:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.90625" customWidth="1"/>
-    <col min="9" max="9" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" customWidth="1"/>
-    <col min="14" max="14" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="16" max="16" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:16">
+      <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:16">
+      <c r="A3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:16">
+      <c r="A4" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>99</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:16">
+      <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>82</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:16">
+      <c r="D6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
+    <row r="7" spans="1:16">
+      <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
+    <row r="8" spans="1:16">
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>44</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>49</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>41</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>48</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
+    <row r="9" spans="1:16">
+      <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>47</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>49</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>38</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>51</v>
       </c>
-      <c r="L9" t="s">
+      <c r="N9" t="s">
         <v>52</v>
       </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
+    <row r="10" spans="1:16">
+      <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>15</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>53</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>17</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>54</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>51</v>
       </c>
-      <c r="L10" t="s">
+      <c r="N10" t="s">
         <v>55</v>
       </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
+    <row r="11" spans="1:16">
+      <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>61</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>62</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>63</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>64</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>65</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N11" t="s">
         <v>66</v>
       </c>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
+    <row r="12" spans="1:16">
+      <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>68</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>49</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>38</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>41</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" t="s">
         <v>69</v>
       </c>
-      <c r="N12" t="s">
+      <c r="P12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:16">
+      <c r="A13" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>71</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>21</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>62</v>
       </c>
-      <c r="N13" t="s">
+      <c r="P13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
+    <row r="14" spans="1:16">
+      <c r="D14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>20</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>73</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>25</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>74</v>
       </c>
-      <c r="L14" t="s">
+      <c r="N14" t="s">
         <v>75</v>
       </c>
-      <c r="N14" t="s">
+      <c r="P14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
+    <row r="15" spans="1:16">
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>22</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>77</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>38</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" t="s">
         <v>18</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" t="s">
         <v>78</v>
       </c>
-      <c r="N15" t="s">
+      <c r="P15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
+    <row r="16" spans="1:16">
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>24</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>81</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>17</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
         <v>80</v>
       </c>
-      <c r="L16" t="s">
+      <c r="N16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
+    <row r="17" spans="4:16">
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>26</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>84</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
         <v>11</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" t="s">
         <v>9</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>39</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
         <v>25</v>
       </c>
-      <c r="L17" t="s">
+      <c r="N17" t="s">
         <v>85</v>
       </c>
-      <c r="N17" t="s">
+      <c r="P17" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
+    <row r="18" spans="4:16">
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>28</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>87</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>88</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>63</v>
       </c>
-      <c r="L18" t="s">
+      <c r="N18" t="s">
         <v>89</v>
       </c>
-      <c r="N18" t="s">
+      <c r="P18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
+    <row r="19" spans="4:16">
+      <c r="D19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
+    <row r="20" spans="4:16">
+      <c r="D20" t="s">
         <v>33</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
+    <row r="21" spans="4:16">
+      <c r="D21" t="s">
         <v>35</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>91</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>92</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>93</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
+    <row r="22" spans="4:16">
+      <c r="D22" t="s">
         <v>36</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
+    <row r="23" spans="4:16">
+      <c r="D23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
+    <row r="24" spans="4:16">
+      <c r="D24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
+    <row r="25" spans="4:16">
+      <c r="D25" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="4:16">
+      <c r="D26" t="s">
         <v>41</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
+    <row r="27" spans="4:16">
+      <c r="D27" t="s">
         <v>54</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B30" s="1" t="s">
+    <row r="30" spans="4:16">
+      <c r="D30" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
+    <row r="31" spans="4:16">
+      <c r="D31" t="s">
         <v>96</v>
       </c>
     </row>
